--- a/public/static/waste-upload-template.xlsx
+++ b/public/static/waste-upload-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GreenCycle-Dashboard\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71168C6C-5F85-4A60-BC7B-27E4DC89349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A2AC7A-99F4-495C-85A1-3C77C81F467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Population (based on Census)</t>
   </si>
@@ -167,13 +167,86 @@
   </si>
   <si>
     <t>Other (Special / Hazardous)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raw waste amounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below. Values must be in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kilograms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please provide population as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Commas are considered invalid.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,6 +269,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,6 +468,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +691,7 @@
   <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,6 +708,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
+      <c r="D2" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -630,6 +723,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -1093,5 +1191,6 @@
     <mergeCell ref="B28:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/static/waste-upload-template.xlsx
+++ b/public/static/waste-upload-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GreenCycle-Dashboard\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A2AC7A-99F4-495C-85A1-3C77C81F467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644BFD1D-63CC-415D-93BA-0BC9D23E6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="3084" windowWidth="17388" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Commas are considered invalid.</t>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -445,13 +445,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,8 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,49 +702,49 @@
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -765,8 +764,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -779,8 +778,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,8 +790,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -803,8 +802,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -815,8 +814,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -827,8 +826,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+    <row r="14" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
@@ -839,8 +838,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -853,8 +852,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+    <row r="16" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
@@ -865,8 +864,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+    <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
@@ -877,8 +876,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -889,8 +888,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+    <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -901,8 +900,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
@@ -913,8 +912,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+    <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
@@ -925,8 +924,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
@@ -937,8 +936,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
@@ -949,8 +948,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
+    <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
@@ -961,8 +960,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
@@ -973,8 +972,8 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+    <row r="26" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
@@ -985,8 +984,8 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+    <row r="27" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
@@ -997,8 +996,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1011,8 +1010,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1023,8 +1022,8 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
+    <row r="30" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1035,8 +1034,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+    <row r="31" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1047,8 +1046,8 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
+    <row r="32" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1059,8 +1058,8 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+    <row r="33" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1071,8 +1070,8 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1085,8 +1084,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+    <row r="35" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,8 +1096,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
+    <row r="36" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1108,8 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+    <row r="37" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1121,8 +1120,8 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
+    <row r="38" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1133,8 +1132,8 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
+    <row r="39" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
       <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1145,8 +1144,8 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
+    <row r="40" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1157,8 +1156,8 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
+    <row r="41" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1169,8 +1168,8 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
+    <row r="42" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
